--- a/Specification.xlsx
+++ b/Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -1906,6 +1906,650 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324544</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>82437</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="209550" y="152400"/>
+          <a:ext cx="4770121" cy="19243273"/>
+          <a:chOff x="109451" y="111526"/>
+          <a:chExt cx="4808914" cy="18675237"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="グループ化 2"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="109451" y="111526"/>
+            <a:ext cx="4808914" cy="18675237"/>
+            <a:chOff x="137160" y="83817"/>
+            <a:chExt cx="4808914" cy="18675237"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="137160" y="83817"/>
+              <a:ext cx="4808914" cy="18675237"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="フローチャート: 処理 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1243247" y="819494"/>
+              <a:ext cx="2428207" cy="651065"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>リザルト画面</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>スタート</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="下矢印 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2278084" y="1484649"/>
+              <a:ext cx="370114" cy="506913"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1455544" y="1992905"/>
+              <a:ext cx="2048841" cy="678343"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>初期化処理</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="下矢印 8"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2269119" y="2698143"/>
+              <a:ext cx="370114" cy="502431"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="213370" y="144128"/>
+            <a:ext cx="2072619" cy="559192"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="1" cap="none" spc="0">
+                <a:ln w="13462">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>メインフロー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51981</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1575048" cy="692562"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="234861" y="76200"/>
+          <a:ext cx="1575048" cy="692562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="3600" b="1" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>モデル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2501968" cy="692562"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228601" y="76200"/>
+          <a:ext cx="2501968" cy="692562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="3600" b="1" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テクスチャ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41232</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2038507" cy="692562"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="224112" y="45720"/>
+          <a:ext cx="2038507" cy="692562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="3600" b="1" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サウンド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45722</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2501968" cy="692562"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228602" y="76200"/>
+          <a:ext cx="2501968" cy="692562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="3600" b="1" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>モーション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2343,15 +2987,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2362,8 +3006,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="114300"/>
-          <a:ext cx="6393180" cy="792480"/>
+          <a:off x="144780" y="76200"/>
+          <a:ext cx="3657600" cy="464820"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2394,7 +3038,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>このシートはタイトルの仕様書です</a:t>
+            <a:t>このシートはタイトル画面の仕様書です</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -2407,1533 +3051,207 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>213370</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>144128</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2072619" cy="559192"/>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="213370" y="144128"/>
-          <a:ext cx="2072619" cy="559192"/>
+          <a:off x="121920" y="106680"/>
+          <a:ext cx="3840480" cy="464820"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="1" cap="none" spc="0">
-              <a:ln w="13462">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
-                  <a:schemeClr val="accent5"/>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メインフロー</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>※</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>このシートはキャラ選択画面の仕様書です</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>83817</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>290947</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="125" name="グループ化 124"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="137160" y="83817"/>
-          <a:ext cx="4808914" cy="18675237"/>
-          <a:chOff x="137160" y="83817"/>
-          <a:chExt cx="4808914" cy="18675237"/>
+          <a:off x="114300" y="99060"/>
+          <a:ext cx="3505200" cy="464820"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="137160" y="83817"/>
-            <a:ext cx="4808914" cy="18675237"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="フローチャート: 処理 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1243247" y="819494"/>
-            <a:ext cx="2428207" cy="651065"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>タイトル画面</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>スタート</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="下矢印 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2278084" y="1484649"/>
-            <a:ext cx="370114" cy="506913"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1455544" y="1992905"/>
-            <a:ext cx="2048841" cy="678343"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>初期化処理</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="下矢印 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2269119" y="2698143"/>
-            <a:ext cx="370114" cy="502431"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="フローチャート: 代替処理 9"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1410720" y="4583705"/>
-            <a:ext cx="2317782" cy="886976"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartAlternateProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>フェードイン</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>(2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>秒くらいかけて</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="フローチャート: 代替処理 10"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1374861" y="3228812"/>
-            <a:ext cx="2317782" cy="886977"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartAlternateProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>白い背景と</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>チームロゴを生成</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="下矢印 11"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2287049" y="4102343"/>
-            <a:ext cx="370114" cy="502430"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="フローチャート: 処理 12"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1257970" y="6001350"/>
-            <a:ext cx="2552495" cy="891459"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>画面待機状態処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>(3</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>秒くらい待つ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="下矢印 13"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2296014" y="5479647"/>
-            <a:ext cx="370114" cy="506914"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="下矢印 14"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2274243" y="6881925"/>
-            <a:ext cx="370114" cy="506913"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="フローチャート: 代替処理 15"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1334520" y="7388261"/>
-            <a:ext cx="2317782" cy="886977"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartAlternateProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>フェードアウト</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>(2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>秒くらいかけて</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="下矢印 16"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2263359" y="9960602"/>
-            <a:ext cx="370114" cy="506914"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="フローチャート: 代替処理 17"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1345408" y="10477825"/>
-            <a:ext cx="2317782" cy="886976"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartAlternateProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>フェードイン</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>(2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>秒くらいかけて</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="フローチャート: 代替処理 18"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1178916" y="8780526"/>
-            <a:ext cx="2621847" cy="1402365"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartAlternateProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>タイトル背景と</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>タイトルロゴを生成し</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>BGM</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>を再生</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="下矢印 19"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2263357" y="8305975"/>
-            <a:ext cx="370114" cy="506913"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="下矢印 20"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2237629" y="11394547"/>
-            <a:ext cx="370114" cy="506914"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="フローチャート: 代替処理 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1028732" y="11925625"/>
-            <a:ext cx="2989086" cy="886976"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartAlternateProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>何かボタンを押してね！ロゴを生成</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="フローチャート: 処理 22"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1222345" y="13365040"/>
-            <a:ext cx="2552495" cy="891459"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>画面待機状態処理２</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="下矢印 23"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2260389" y="12843337"/>
-            <a:ext cx="370114" cy="506914"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="下矢印 28"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2274243" y="14256500"/>
-            <a:ext cx="370114" cy="506914"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="フローチャート: 代替処理 29"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1281081" y="14779661"/>
-            <a:ext cx="2317782" cy="886977"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartAlternateProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>フェードアウト</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>(2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>秒くらいかけて</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="下矢印 31"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2260388" y="15697373"/>
-            <a:ext cx="370114" cy="506914"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="正方形/長方形 32"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1443669" y="16221523"/>
-            <a:ext cx="2048841" cy="678343"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>終了処理</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="下矢印 33"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2260388" y="16902718"/>
-            <a:ext cx="370114" cy="506914"/>
-          </a:xfrm>
-          <a:prstGeom prst="downArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="フローチャート: 処理 34"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1146266" y="17431094"/>
-            <a:ext cx="2691443" cy="856906"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>タイトル画面</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>終了</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>キャラ選択画面</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>へ遷移</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>このシートはゲーム画面の仕様書です</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106680" y="91440"/>
+          <a:ext cx="3680460" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>このシートはリザルト画面の仕様書です</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -7073,76 +6391,1880 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>220286</xdr:colOff>
+      <xdr:colOff>109451</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>139236</xdr:rowOff>
+      <xdr:rowOff>111526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>263238</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>180108</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="109451" y="111526"/>
+          <a:ext cx="4808914" cy="18675237"/>
+          <a:chOff x="109451" y="111526"/>
+          <a:chExt cx="4808914" cy="18675237"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="125" name="グループ化 124"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="109451" y="111526"/>
+            <a:ext cx="4808914" cy="18675237"/>
+            <a:chOff x="137160" y="83817"/>
+            <a:chExt cx="4808914" cy="18675237"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="137160" y="83817"/>
+              <a:ext cx="4808914" cy="18675237"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="フローチャート: 処理 3"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1243247" y="819494"/>
+              <a:ext cx="2428207" cy="651065"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>タイトル画面</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>スタート</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="下矢印 4"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2278084" y="1484649"/>
+              <a:ext cx="370114" cy="506913"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1455544" y="1992905"/>
+              <a:ext cx="2048841" cy="678343"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>初期化処理</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="下矢印 8"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2269119" y="2698143"/>
+              <a:ext cx="370114" cy="502431"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="フローチャート: 代替処理 9"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1410720" y="4583705"/>
+              <a:ext cx="2317782" cy="886976"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartAlternateProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>フェードイン</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>(2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>秒くらいかけて</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="フローチャート: 代替処理 10"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1374861" y="3228812"/>
+              <a:ext cx="2317782" cy="886977"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartAlternateProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>白い背景と</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>チームロゴを生成</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="下矢印 11"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2287049" y="4102343"/>
+              <a:ext cx="370114" cy="502430"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="フローチャート: 処理 12"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1257970" y="6001350"/>
+              <a:ext cx="2552495" cy="891459"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>画面待機状態処理</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>(3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>秒くらい待つ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="下矢印 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2296014" y="5479647"/>
+              <a:ext cx="370114" cy="506914"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="下矢印 14"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2274243" y="6881925"/>
+              <a:ext cx="370114" cy="506913"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="フローチャート: 代替処理 15"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1334520" y="7388261"/>
+              <a:ext cx="2317782" cy="886977"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartAlternateProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>フェードアウト</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>(2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>秒くらいかけて</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="下矢印 16"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2263359" y="9960602"/>
+              <a:ext cx="370114" cy="506914"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="フローチャート: 代替処理 17"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1345408" y="10477825"/>
+              <a:ext cx="2317782" cy="886976"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartAlternateProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>フェードイン</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>(2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>秒くらいかけて</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="フローチャート: 代替処理 18"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1178916" y="8780526"/>
+              <a:ext cx="2621847" cy="1402365"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartAlternateProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>タイトル背景と</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>タイトルロゴを生成し</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>BGM</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>を再生</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="下矢印 19"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2263357" y="8305975"/>
+              <a:ext cx="370114" cy="506913"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="下矢印 20"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2237629" y="11394547"/>
+              <a:ext cx="370114" cy="506914"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="フローチャート: 代替処理 21"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1028732" y="11925625"/>
+              <a:ext cx="2989086" cy="886976"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartAlternateProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>何かボタンを押してね！ロゴを生成</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="フローチャート: 処理 22"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1222345" y="13365040"/>
+              <a:ext cx="2552495" cy="891459"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>画面待機状態処理２</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="下矢印 23"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2260389" y="12843337"/>
+              <a:ext cx="370114" cy="506914"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="下矢印 28"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2274243" y="14256500"/>
+              <a:ext cx="370114" cy="506914"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="フローチャート: 代替処理 29"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1281081" y="14779661"/>
+              <a:ext cx="2317782" cy="886977"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartAlternateProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>フェードアウト</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>(2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>秒くらいかけて</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="下矢印 31"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2260388" y="15697373"/>
+              <a:ext cx="370114" cy="506914"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1443669" y="16221523"/>
+              <a:ext cx="2048841" cy="678343"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>終了処理</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="下矢印 33"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2260388" y="16902718"/>
+              <a:ext cx="370114" cy="506914"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="フローチャート: 処理 34"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1146266" y="17431094"/>
+              <a:ext cx="2691443" cy="856906"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>タイトル画面</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>終了</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>キャラ選択画面</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>へ遷移</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="213370" y="144128"/>
+            <a:ext cx="2072619" cy="559192"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="1" cap="none" spc="0">
+                <a:ln w="13462">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>メインフロー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>55418</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209205</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>165564</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="グループ化 60"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="55418" y="96982"/>
+          <a:ext cx="4808914" cy="18675237"/>
+          <a:chOff x="109451" y="111526"/>
+          <a:chExt cx="4808914" cy="18675237"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="62" name="グループ化 61"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="109451" y="111526"/>
+            <a:ext cx="4808914" cy="18675237"/>
+            <a:chOff x="137160" y="83817"/>
+            <a:chExt cx="4808914" cy="18675237"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="137160" y="83817"/>
+              <a:ext cx="4808914" cy="18675237"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="フローチャート: 処理 64"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1243247" y="819494"/>
+              <a:ext cx="2428207" cy="651065"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>キャラ選択画面</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>スタート</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="下矢印 65"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2278084" y="1484649"/>
+              <a:ext cx="370114" cy="506913"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1455544" y="1992905"/>
+              <a:ext cx="2048841" cy="678343"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>初期化処理</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="213370" y="144128"/>
+            <a:ext cx="2072619" cy="559192"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="1" cap="none" spc="0">
+                <a:ln w="13462">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>メインフロー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>193963</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>568036</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>227373</xdr:rowOff>
+      <xdr:colOff>564077</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="正方形/長方形 127"/>
+        <xdr:cNvPr id="90" name="下矢印 89"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="220286" y="139236"/>
-          <a:ext cx="2342805" cy="559192"/>
+          <a:off x="2189018" y="2687782"/>
+          <a:ext cx="370114" cy="506913"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="downArrow">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100"/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="1" cap="none" spc="0">
-              <a:ln w="13462">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
-                  <a:schemeClr val="accent5"/>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メインフロー</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7151,311 +8273,339 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>51981</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1575048" cy="692562"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234737</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>60665</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="234861" y="76200"/>
-          <a:ext cx="1575048" cy="692562"/>
+          <a:off x="119743" y="130628"/>
+          <a:ext cx="4839394" cy="18675237"/>
+          <a:chOff x="109451" y="111526"/>
+          <a:chExt cx="4808914" cy="18675237"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="3600" b="1" cap="none" spc="0">
-              <a:ln w="13462">
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="グループ化 2"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="109451" y="111526"/>
+            <a:ext cx="4808914" cy="18675237"/>
+            <a:chOff x="137160" y="83817"/>
+            <a:chExt cx="4808914" cy="18675237"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="137160" y="83817"/>
+              <a:ext cx="4808914" cy="18675237"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="フローチャート: 処理 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1243247" y="819494"/>
+              <a:ext cx="2428207" cy="651065"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>ゲーム画面</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>スタート</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="下矢印 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2278084" y="1484649"/>
+              <a:ext cx="370114" cy="506913"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1455544" y="1992905"/>
+              <a:ext cx="2048841" cy="678343"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>初期化処理</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="下矢印 8"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2269119" y="2698143"/>
+              <a:ext cx="370114" cy="502431"/>
+            </a:xfrm>
+            <a:prstGeom prst="downArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="213370" y="144128"/>
+            <a:ext cx="2072619" cy="559192"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="1" cap="none" spc="0">
+                <a:ln w="13462">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
-                  <a:schemeClr val="accent5"/>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>モデル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+                <a:effectLst>
+                  <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>メインフロー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>45721</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2501968" cy="692562"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228601" y="76200"/>
-          <a:ext cx="2501968" cy="692562"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="3600" b="1" cap="none" spc="0">
-              <a:ln w="13462">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
-                  <a:schemeClr val="accent5"/>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>テクスチャ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>41232</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2038507" cy="692562"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="224112" y="45720"/>
-          <a:ext cx="2038507" cy="692562"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="3600" b="1" cap="none" spc="0">
-              <a:ln w="13462">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
-                  <a:schemeClr val="accent5"/>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サウンド</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>45722</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2501968" cy="692562"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228602" y="76200"/>
-          <a:ext cx="2501968" cy="692562"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="3600" b="1" cap="none" spc="0">
-              <a:ln w="13462">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
-                  <a:schemeClr val="accent5"/>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>モーション</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7751,7 +8901,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B5:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7909,7 +9061,8 @@
     <hyperlink ref="C8" location="共通仕様!A1" display="共通仕様!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7918,14 +9071,15 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7935,7 +9089,7 @@
   <dimension ref="B5:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8397,8 +9551,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="B4:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8732,7 +9886,7 @@
   <dimension ref="B5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8973,7 +10127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:G49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -9317,13 +10471,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9333,13 +10488,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9354,6 +10510,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9363,7 +10520,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+      <selection activeCell="AZ24" sqref="AZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9382,14 +10539,15 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9398,11 +10556,12 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Specification.xlsx
+++ b/Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -8901,8 +8901,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B5:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9071,8 +9071,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9088,8 +9088,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B5:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/Specification.xlsx
+++ b/Specification.xlsx
@@ -8108,7 +8108,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1455544" y="1992905"/>
+              <a:off x="1455544" y="2062180"/>
               <a:ext cx="2048841" cy="678343"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8215,14 +8215,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193963</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>96982</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>564077</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>77426</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8231,7 +8231,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189018" y="2687782"/>
+          <a:off x="2189018" y="2867895"/>
           <a:ext cx="370114" cy="506913"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -8901,8 +8901,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B5:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9061,7 +9061,7 @@
     <hyperlink ref="C8" location="共通仕様!A1" display="共通仕様!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -9089,7 +9089,7 @@
   <dimension ref="B5:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9886,7 +9886,7 @@
   <dimension ref="B5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10519,8 +10519,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AZ24" sqref="AZ24"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10540,7 +10540,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K16"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
